--- a/evaluation/bin/Debug/data/parametre.xlsx
+++ b/evaluation/bin/Debug/data/parametre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feno\Documents\Visual Studio 2012\Projects\evaluation\evaluation\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0425B7-F507-4283-A9D3-0C0B00E1F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644577FE-6A91-4E2B-87D7-33E669696FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>poid</t>
   </si>
@@ -46,9 +46,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>realisation</t>
-  </si>
-  <si>
     <t>coef</t>
   </si>
   <si>
@@ -103,13 +100,7 @@
     <t>quiz</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>Information_sur_le_coeficient</t>
-  </si>
-  <si>
-    <t>Résultat_pondéré</t>
   </si>
 </sst>
 </file>
@@ -118,7 +109,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -169,18 +160,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFA500"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -242,37 +227,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Milliers 2" xfId="2" xr:uid="{712AC103-BACE-4507-A14F-9C5E6A9246AB}"/>
@@ -579,11 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,61 +569,49 @@
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="23" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="78.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -654,19 +619,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -674,22 +636,19 @@
       <c r="D3">
         <v>90</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -697,22 +656,19 @@
       <c r="D4">
         <v>240</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -720,22 +676,19 @@
       <c r="D5">
         <v>90</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -743,22 +696,19 @@
       <c r="D6">
         <v>18</v>
       </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -766,22 +716,19 @@
       <c r="D7">
         <v>85</v>
       </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -789,22 +736,19 @@
       <c r="D8">
         <v>85</v>
       </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -812,10 +756,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="F9">
         <v>0</v>
       </c>
     </row>

--- a/evaluation/bin/Debug/data/parametre.xlsx
+++ b/evaluation/bin/Debug/data/parametre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feno\Documents\Visual Studio 2012\Projects\evaluation\evaluation\bin\Debug\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Visual Studio 2012\Projects\evaluation\evaluation\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644577FE-6A91-4E2B-87D7-33E669696FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF810FB6-4ECA-4EE0-8C7C-D34C6CC937DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
-    <t>poid</t>
-  </si>
-  <si>
-    <t>objectif</t>
-  </si>
-  <si>
-    <t>indicateur</t>
-  </si>
-  <si>
     <t>taux</t>
   </si>
   <si>
@@ -46,21 +37,9 @@
     <t>note</t>
   </si>
   <si>
-    <t>coef</t>
-  </si>
-  <si>
-    <t>au pro rata pour réalisation&gt;= 90%  avec plafonnement à  120% de R/O</t>
-  </si>
-  <si>
     <t>suivant barème DMT</t>
   </si>
   <si>
-    <t>au pro rata pour réalisation &gt;= 90% avec plafonnement à 100% d'atteinte de l'objectif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au pro rata pour réalisation &gt;= 16/20 avec plafonnement à 100% d'atteinte de l'objectif </t>
-  </si>
-  <si>
     <t>au pro rata pour réalisation &gt;= 80% avec plafonnement à 100% d'atteinte de l'objectif</t>
   </si>
   <si>
@@ -101,6 +80,27 @@
   </si>
   <si>
     <t>Information_sur_le_coeficient</t>
+  </si>
+  <si>
+    <t>au pro rata pour réalisation&gt;= {x}%  avec plafonnement à  120% de R/O</t>
+  </si>
+  <si>
+    <t>au pro rata pour réalisation &gt;= {x}% avec plafonnement à 100% d'atteinte de l'objectif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au pro rata pour réalisation &gt;= {x}/20 avec plafonnement à 100% d'atteinte de l'objectif </t>
+  </si>
+  <si>
+    <t>Indicateurs</t>
+  </si>
+  <si>
+    <t>Poids</t>
+  </si>
+  <si>
+    <t>Objectif</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
   </si>
 </sst>
 </file>
@@ -555,12 +555,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,24 +581,24 @@
     <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row spans="1:11" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -606,12 +606,12 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row spans="1:11" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -623,12 +623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row spans="1:11" ht="25.5" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -637,18 +637,18 @@
         <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row spans="1:11" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -657,18 +657,18 @@
         <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row spans="1:11" ht="25.5" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -677,18 +677,18 @@
         <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row spans="1:11" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -697,18 +697,18 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row spans="1:11" ht="38.25" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -717,18 +717,18 @@
         <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row spans="1:11" ht="25.5" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -737,18 +737,18 @@
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row spans="1:11" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>10</v>
